--- a/output/GRDP_19203036000109.xlsx
+++ b/output/GRDP_19203036000109.xlsx
@@ -1318,10 +1318,10 @@
         <v>44165</v>
       </c>
       <c r="B85">
-        <v>1.1618332</v>
+        <v>1.1618806</v>
       </c>
       <c r="C85">
-        <v>0.01128923503866441</v>
+        <v>0.01131140840048572</v>
       </c>
     </row>
   </sheetData>

--- a/output/GRDP_19203036000109.xlsx
+++ b/output/GRDP_19203036000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GRDP FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,942 +383,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41639</v>
       </c>
       <c r="B2">
-        <v>0.005806800000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41670</v>
       </c>
       <c r="B3">
-        <v>0.01227890000000009</v>
-      </c>
-      <c r="C3">
         <v>0.006434734782067686</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41698</v>
       </c>
       <c r="B4">
-        <v>0.0192159999999999</v>
-      </c>
-      <c r="C4">
         <v>0.006852953272067364</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41729</v>
       </c>
       <c r="B5">
-        <v>0.01451000000000002</v>
-      </c>
-      <c r="C5">
         <v>-0.004617274454090103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41759</v>
       </c>
       <c r="B6">
-        <v>0.02388940000000006</v>
-      </c>
-      <c r="C6">
         <v>0.009245251402154819</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41790</v>
       </c>
       <c r="B7">
-        <v>0.02984539999999991</v>
-      </c>
-      <c r="C7">
         <v>0.005817034535175125</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41820</v>
       </c>
       <c r="B8">
-        <v>0.03957870000000008</v>
-      </c>
-      <c r="C8">
         <v>0.009451224426501481</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41851</v>
       </c>
       <c r="B9">
-        <v>0.05189240000000006</v>
-      </c>
-      <c r="C9">
         <v>0.01184489447504067</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41882</v>
       </c>
       <c r="B10">
-        <v>0.05749099999999996</v>
-      </c>
-      <c r="C10">
         <v>0.005322407500995219</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41912</v>
       </c>
       <c r="B11">
-        <v>0.07083280000000003</v>
-      </c>
-      <c r="C11">
         <v>0.01261646671224637</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41943</v>
       </c>
       <c r="B12">
-        <v>0.07909389999999994</v>
-      </c>
-      <c r="C12">
         <v>0.007714649756712655</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41973</v>
       </c>
       <c r="B13">
-        <v>0.1086247</v>
-      </c>
-      <c r="C13">
         <v>0.02736629314650019</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42004</v>
       </c>
       <c r="B14">
-        <v>0.1256440000000001</v>
-      </c>
-      <c r="C14">
         <v>0.01535172362657988</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42035</v>
       </c>
       <c r="B15">
-        <v>0.1510590000000001</v>
-      </c>
-      <c r="C15">
         <v>0.02257818635376729</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42063</v>
       </c>
       <c r="B16">
-        <v>0.1770296</v>
-      </c>
-      <c r="C16">
         <v>0.02256235345017066</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42094</v>
       </c>
       <c r="B17">
-        <v>0.2152677999999999</v>
-      </c>
-      <c r="C17">
         <v>0.03248703346118043</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42124</v>
       </c>
       <c r="B18">
-        <v>0.2156707</v>
-      </c>
-      <c r="C18">
         <v>0.0003315318648284826</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42155</v>
       </c>
       <c r="B19">
-        <v>0.2403523999999999</v>
-      </c>
-      <c r="C19">
         <v>0.02030294881664907</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42185</v>
       </c>
       <c r="B20">
-        <v>0.2592285999999999</v>
-      </c>
-      <c r="C20">
         <v>0.01521841695956727</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42216</v>
       </c>
       <c r="B21">
-        <v>0.2853796</v>
-      </c>
-      <c r="C21">
         <v>0.02076747621520036</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42247</v>
       </c>
       <c r="B22">
-        <v>0.2961100000000001</v>
-      </c>
-      <c r="C22">
         <v>0.008348039754170866</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42277</v>
       </c>
       <c r="B23">
-        <v>0.3093024</v>
-      </c>
-      <c r="C23">
         <v>0.01017845707540244</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42308</v>
       </c>
       <c r="B24">
-        <v>0.3454896000000001</v>
-      </c>
-      <c r="C24">
         <v>0.02763853484114898</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42338</v>
       </c>
       <c r="B25">
-        <v>0.3642392000000001</v>
-      </c>
-      <c r="C25">
         <v>0.01393515044635052</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42369</v>
       </c>
       <c r="B26">
-        <v>0.3927498</v>
-      </c>
-      <c r="C26">
         <v>0.02089853450919743</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42400</v>
       </c>
       <c r="B27">
-        <v>0.4344446</v>
-      </c>
-      <c r="C27">
         <v>0.02993703535265269</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42429</v>
       </c>
       <c r="B28">
-        <v>0.4448961</v>
-      </c>
-      <c r="C28">
         <v>0.007286095259447567</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42460</v>
       </c>
       <c r="B29">
-        <v>0.4249995</v>
-      </c>
-      <c r="C29">
         <v>-0.01377026348122889</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42490</v>
       </c>
       <c r="B30">
-        <v>0.4874879999999999</v>
-      </c>
-      <c r="C30">
         <v>0.04385159433389263</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42521</v>
       </c>
       <c r="B31">
-        <v>0.5036183999999999</v>
-      </c>
-      <c r="C31">
         <v>0.01084405386799769</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42551</v>
       </c>
       <c r="B32">
-        <v>0.520303</v>
-      </c>
-      <c r="C32">
         <v>0.01109629943342005</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42582</v>
       </c>
       <c r="B33">
-        <v>0.537666</v>
-      </c>
-      <c r="C33">
         <v>0.01142074967950468</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42613</v>
       </c>
       <c r="B34">
-        <v>0.5590857</v>
-      </c>
-      <c r="C34">
         <v>0.01393000820724399</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42643</v>
       </c>
       <c r="B35">
-        <v>0.5741213000000001</v>
-      </c>
-      <c r="C35">
         <v>0.009643857294053815</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42674</v>
       </c>
       <c r="B36">
-        <v>0.5957367</v>
-      </c>
-      <c r="C36">
         <v>0.01373172448654358</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42704</v>
       </c>
       <c r="B37">
-        <v>0.6072534999999999</v>
-      </c>
-      <c r="C37">
         <v>0.007217230762443405</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42735</v>
       </c>
       <c r="B38">
-        <v>0.6423829000000001</v>
-      </c>
-      <c r="C38">
         <v>0.02185678861486395</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42766</v>
       </c>
       <c r="B39">
-        <v>0.6719999999999999</v>
-      </c>
-      <c r="C39">
         <v>0.0180330055798803</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42794</v>
       </c>
       <c r="B40">
-        <v>0.694383</v>
-      </c>
-      <c r="C40">
         <v>0.01338696172248799</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42825</v>
       </c>
       <c r="B41">
-        <v>0.7167432</v>
-      </c>
-      <c r="C41">
         <v>0.01319666214781434</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42855</v>
       </c>
       <c r="B42">
-        <v>0.7283766</v>
-      </c>
-      <c r="C42">
         <v>0.006776435753466314</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42886</v>
       </c>
       <c r="B43">
-        <v>0.7476422</v>
-      </c>
-      <c r="C43">
         <v>0.01114664477637572</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42916</v>
       </c>
       <c r="B44">
-        <v>0.7753091000000001</v>
-      </c>
-      <c r="C44">
         <v>0.01583098645706782</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42947</v>
       </c>
       <c r="B45">
-        <v>0.8082187000000001</v>
-      </c>
-      <c r="C45">
         <v>0.01853739160127099</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42978</v>
       </c>
       <c r="B46">
-        <v>0.8351797000000001</v>
-      </c>
-      <c r="C46">
         <v>0.01491025394218082</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43008</v>
       </c>
       <c r="B47">
-        <v>0.8668127000000001</v>
-      </c>
-      <c r="C47">
         <v>0.01723700409284179</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43039</v>
       </c>
       <c r="B48">
-        <v>0.8551652000000001</v>
-      </c>
-      <c r="C48">
         <v>-0.006239244033426572</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43069</v>
       </c>
       <c r="B49">
-        <v>0.8580483999999999</v>
-      </c>
-      <c r="C49">
         <v>0.001554147307204712</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43100</v>
       </c>
       <c r="B50">
-        <v>0.8826959999999999</v>
-      </c>
-      <c r="C50">
         <v>0.01326531644708506</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43131</v>
       </c>
       <c r="B51">
-        <v>0.9076701</v>
-      </c>
-      <c r="C51">
         <v>0.01326507306543379</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43159</v>
       </c>
       <c r="B52">
-        <v>0.9214370999999999</v>
-      </c>
-      <c r="C52">
         <v>0.007216656590675719</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43190</v>
       </c>
       <c r="B53">
-        <v>0.9360976000000001</v>
-      </c>
-      <c r="C53">
         <v>0.007629966133161581</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43220</v>
       </c>
       <c r="B54">
-        <v>0.9202473</v>
-      </c>
-      <c r="C54">
         <v>-0.008186725710522036</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43251</v>
       </c>
       <c r="B55">
-        <v>0.8631038</v>
-      </c>
-      <c r="C55">
         <v>-0.02975840663856166</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43281</v>
       </c>
       <c r="B56">
-        <v>0.8803723999999999</v>
-      </c>
-      <c r="C56">
         <v>0.009268726734388055</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43312</v>
       </c>
       <c r="B57">
-        <v>0.8825429</v>
-      </c>
-      <c r="C57">
         <v>0.001154292628417597</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43343</v>
       </c>
       <c r="B58">
-        <v>0.8730321000000001</v>
-      </c>
-      <c r="C58">
         <v>-0.005052102663902103</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43373</v>
       </c>
       <c r="B59">
-        <v>0.8850079</v>
-      </c>
-      <c r="C59">
         <v>0.006393803928934183</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43404</v>
       </c>
       <c r="B60">
-        <v>0.9153705000000001</v>
-      </c>
-      <c r="C60">
         <v>0.01610741260023363</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43434</v>
       </c>
       <c r="B61">
-        <v>0.894633</v>
-      </c>
-      <c r="C61">
         <v>-0.01082688701742041</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43465</v>
       </c>
       <c r="B62">
-        <v>0.9156473999999999</v>
-      </c>
-      <c r="C62">
         <v>0.01109154121141143</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43496</v>
       </c>
       <c r="B63">
-        <v>0.9822158000000001</v>
-      </c>
-      <c r="C63">
         <v>0.03474981878189065</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43524</v>
       </c>
       <c r="B64">
-        <v>0.9798507999999999</v>
-      </c>
-      <c r="C64">
         <v>-0.001193109246732993</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43555</v>
       </c>
       <c r="B65">
-        <v>0.9584032</v>
-      </c>
-      <c r="C65">
         <v>-0.010832937512261</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43585</v>
       </c>
       <c r="B66">
-        <v>0.9649643999999999</v>
-      </c>
-      <c r="C66">
         <v>0.003350280473397804</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43616</v>
       </c>
       <c r="B67">
-        <v>0.9730506999999999</v>
-      </c>
-      <c r="C67">
         <v>0.004115239950403193</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43646</v>
       </c>
       <c r="B68">
-        <v>1.0140161</v>
-      </c>
-      <c r="C68">
         <v>0.02076246697563322</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43677</v>
       </c>
       <c r="B69">
-        <v>1.0582218</v>
-      </c>
-      <c r="C69">
         <v>0.02194903009961036</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43708</v>
       </c>
       <c r="B70">
-        <v>1.0359899</v>
-      </c>
-      <c r="C70">
         <v>-0.01080150836999194</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43738</v>
       </c>
       <c r="B71">
-        <v>1.04731</v>
-      </c>
-      <c r="C71">
         <v>0.00555999811197494</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43769</v>
       </c>
       <c r="B72">
-        <v>1.0830983</v>
-      </c>
-      <c r="C72">
         <v>0.01748064533460991</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43799</v>
       </c>
       <c r="B73">
-        <v>1.0598975</v>
-      </c>
-      <c r="C73">
         <v>-0.01113764050405119</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43830</v>
       </c>
       <c r="B74">
-        <v>1.1255684</v>
-      </c>
-      <c r="C74">
         <v>0.03188066396507594</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43861</v>
       </c>
       <c r="B75">
-        <v>1.1224069</v>
-      </c>
-      <c r="C75">
         <v>-0.001487366861494532</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43890</v>
       </c>
       <c r="B76">
-        <v>1.0985059</v>
-      </c>
-      <c r="C76">
         <v>-0.01126127134245558</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43921</v>
       </c>
       <c r="B77">
-        <v>1.03395</v>
-      </c>
-      <c r="C77">
         <v>-0.03076279175579166</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43951</v>
       </c>
       <c r="B78">
-        <v>1.0722025</v>
-      </c>
-      <c r="C78">
         <v>0.01880700115538736</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43982</v>
       </c>
       <c r="B79">
-        <v>1.095097</v>
-      </c>
-      <c r="C79">
         <v>0.01104838933453656</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44012</v>
       </c>
       <c r="B80">
-        <v>1.1474777</v>
-      </c>
-      <c r="C80">
         <v>0.02500156317344726</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44043</v>
       </c>
       <c r="B81">
-        <v>1.203785</v>
-      </c>
-      <c r="C81">
         <v>0.02622020242631606</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44074</v>
       </c>
       <c r="B82">
-        <v>1.1907175</v>
-      </c>
-      <c r="C82">
         <v>-0.005929571169601355</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44104</v>
       </c>
       <c r="B83">
-        <v>1.1223082</v>
-      </c>
-      <c r="C83">
         <v>-0.03122689255917288</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44135</v>
       </c>
       <c r="B84">
-        <v>1.1377002</v>
-      </c>
-      <c r="C84">
         <v>0.007252481048699577</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44165</v>
       </c>
       <c r="B85">
-        <v>1.1618806</v>
-      </c>
-      <c r="C85">
-        <v>0.01131140840048572</v>
+        <v>0.008636056636941003</v>
       </c>
     </row>
   </sheetData>
